--- a/Code/Results/Cases/Case_4_248/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_248/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.849704975957593</v>
+        <v>0.2998339386254827</v>
       </c>
       <c r="C2">
-        <v>0.1635536010969076</v>
+        <v>0.04903159714902472</v>
       </c>
       <c r="D2">
-        <v>0.1981298373947169</v>
+        <v>0.07851510717721055</v>
       </c>
       <c r="E2">
-        <v>0.3230968192722514</v>
+        <v>0.1494589360147245</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.000802224952654085</v>
+        <v>0.002444180571458521</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3397124689824196</v>
+        <v>0.6398288474074398</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9690392067567757</v>
+        <v>0.3237104454460109</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6165954304453862</v>
+        <v>0.2401359665607004</v>
       </c>
       <c r="N2">
-        <v>0.7606150682575539</v>
+        <v>1.593526331344803</v>
       </c>
       <c r="O2">
-        <v>1.854080250580154</v>
+        <v>3.040280488031499</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7378737649148945</v>
+        <v>0.2673024519064882</v>
       </c>
       <c r="C3">
-        <v>0.1423736341770621</v>
+        <v>0.04277111620473306</v>
       </c>
       <c r="D3">
-        <v>0.1718653883686017</v>
+        <v>0.07122575567662182</v>
       </c>
       <c r="E3">
-        <v>0.2806772953935237</v>
+        <v>0.1386873054833515</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008062153522697176</v>
+        <v>0.002446796989621838</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.334574749618092</v>
+        <v>0.6427850256888981</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.841730321496641</v>
+        <v>0.2865146929551656</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5336858215812654</v>
+        <v>0.2175135535620853</v>
       </c>
       <c r="N3">
-        <v>0.8011253923604738</v>
+        <v>1.610609169924331</v>
       </c>
       <c r="O3">
-        <v>1.776216808907122</v>
+        <v>3.041201842892008</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6694066850148204</v>
+        <v>0.2473687087033341</v>
       </c>
       <c r="C4">
-        <v>0.1294197116722273</v>
+        <v>0.03892031210686753</v>
       </c>
       <c r="D4">
-        <v>0.1558865658244883</v>
+        <v>0.06678392970682978</v>
       </c>
       <c r="E4">
-        <v>0.2550969181863536</v>
+        <v>0.1321716490359108</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008087455509444796</v>
+        <v>0.002448489620338353</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3321002713714023</v>
+        <v>0.6449280029245053</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7638018272033378</v>
+        <v>0.2637016229586777</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4832705924340601</v>
+        <v>0.2037189408445528</v>
       </c>
       <c r="N4">
-        <v>0.8271292746138723</v>
+        <v>1.62164069040888</v>
       </c>
       <c r="O4">
-        <v>1.732036881212053</v>
+        <v>3.043449654035072</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6415434483134277</v>
+        <v>0.2392561369210284</v>
       </c>
       <c r="C5">
-        <v>0.1241504131766646</v>
+        <v>0.03734937123758186</v>
       </c>
       <c r="D5">
-        <v>0.1494077084382894</v>
+        <v>0.06498237364364456</v>
       </c>
       <c r="E5">
-        <v>0.244776645649047</v>
+        <v>0.1295409430060062</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008097971607284334</v>
+        <v>0.002449201106830088</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3312548889349642</v>
+        <v>0.6458837030429692</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7320906964772718</v>
+        <v>0.2544117938443691</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4628328020068722</v>
+        <v>0.1981214969055216</v>
       </c>
       <c r="N5">
-        <v>0.8380024149979572</v>
+        <v>1.62627250032974</v>
       </c>
       <c r="O5">
-        <v>1.714895712101679</v>
+        <v>3.04478846843719</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6369187135868231</v>
+        <v>0.2379097005405413</v>
       </c>
       <c r="C6">
-        <v>0.1232759355944069</v>
+        <v>0.03708841502886173</v>
       </c>
       <c r="D6">
-        <v>0.1483337437766323</v>
+        <v>0.06468374171632263</v>
       </c>
       <c r="E6">
-        <v>0.243068882081154</v>
+        <v>0.1291055885368166</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008099730311746965</v>
+        <v>0.002449320562701333</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3311241309795356</v>
+        <v>0.6460473734912284</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7268274077713386</v>
+        <v>0.252869638044416</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4594451018926335</v>
+        <v>0.1971934912876989</v>
       </c>
       <c r="N6">
-        <v>0.8398243595208239</v>
+        <v>1.627049843807617</v>
       </c>
       <c r="O6">
-        <v>1.712100118196929</v>
+        <v>3.04503630972269</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6690307746555675</v>
+        <v>0.2472592563779585</v>
       </c>
       <c r="C7">
-        <v>0.1293486135862167</v>
+        <v>0.03889913274134926</v>
       </c>
       <c r="D7">
-        <v>0.1557990632854427</v>
+        <v>0.06675959876621107</v>
       </c>
       <c r="E7">
-        <v>0.2549573312674127</v>
+        <v>0.1321360715831901</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.00080875964969331</v>
+        <v>0.002448499127623364</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3320882206250886</v>
+        <v>0.6449405581534506</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7633739952128167</v>
+        <v>0.2635763095840815</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4829945502078488</v>
+        <v>0.2036433547937833</v>
       </c>
       <c r="N7">
-        <v>0.8272748047870593</v>
+        <v>1.621702604522136</v>
       </c>
       <c r="O7">
-        <v>1.731802281178375</v>
+        <v>3.043465998022413</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8110970248636704</v>
+        <v>0.2886088305506576</v>
       </c>
       <c r="C8">
-        <v>0.1562382354307061</v>
+        <v>0.04687441016001515</v>
       </c>
       <c r="D8">
-        <v>0.1890404308776539</v>
+        <v>0.07599471281724846</v>
       </c>
       <c r="E8">
-        <v>0.3083658444074331</v>
+        <v>0.1457243741718628</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008035844677400318</v>
+        <v>0.002445064873695708</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3377948619717799</v>
+        <v>0.6407800710096154</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9250840837606518</v>
+        <v>0.3108802894811333</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5878957280420636</v>
+        <v>0.2323158550491371</v>
       </c>
       <c r="N8">
-        <v>0.7743435404708308</v>
+        <v>1.599303843773807</v>
       </c>
       <c r="O8">
-        <v>1.826448931293982</v>
+        <v>3.040248945088337</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.091849857061646</v>
+        <v>0.370006985792287</v>
       </c>
       <c r="C9">
-        <v>0.2095278763667352</v>
+        <v>0.06245975833662953</v>
       </c>
       <c r="D9">
-        <v>0.2556151023772912</v>
+        <v>0.09437405003346555</v>
       </c>
       <c r="E9">
-        <v>0.4174284239518329</v>
+        <v>0.1731607473884154</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007940522869711523</v>
+        <v>0.00243901080189496</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3547665910399402</v>
+        <v>0.6352245235481035</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.24482975802357</v>
+        <v>0.4038340221846681</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7983249446706182</v>
+        <v>0.2893078667147293</v>
       </c>
       <c r="N9">
-        <v>0.6798892158563739</v>
+        <v>1.559687262972691</v>
       </c>
       <c r="O9">
-        <v>2.043240902966204</v>
+        <v>3.047298375917478</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.300334727903817</v>
+        <v>0.4299910426904603</v>
       </c>
       <c r="C10">
-        <v>0.2492589431706591</v>
+        <v>0.07387864246659603</v>
       </c>
       <c r="D10">
-        <v>0.3056980588941229</v>
+        <v>0.1080437660276772</v>
       </c>
       <c r="E10">
-        <v>0.5011543953345097</v>
+        <v>0.1938167660784202</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007873964953227583</v>
+        <v>0.002434973534653343</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3713309615436629</v>
+        <v>0.6327327257882018</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.482459638600517</v>
+        <v>0.4722371454320182</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9570368562046028</v>
+        <v>0.3316597282936513</v>
       </c>
       <c r="N10">
-        <v>0.6167410509428031</v>
+        <v>1.533208760437635</v>
       </c>
       <c r="O10">
-        <v>2.225104780969161</v>
+        <v>3.060642588897963</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.395877594975104</v>
+        <v>0.4573170159726203</v>
       </c>
       <c r="C11">
-        <v>0.2675173389526009</v>
+        <v>0.0790668653651494</v>
       </c>
       <c r="D11">
-        <v>0.328813683075694</v>
+        <v>0.1142991657434607</v>
       </c>
       <c r="E11">
-        <v>0.5402584494940754</v>
+        <v>0.2033257639171993</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007844373717816672</v>
+        <v>0.002433225157634708</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3798927078334415</v>
+        <v>0.631945047430122</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.591420278119728</v>
+        <v>0.503378466914711</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.030430610486889</v>
+        <v>0.3510339802253313</v>
       </c>
       <c r="N11">
-        <v>0.5895023982651395</v>
+        <v>1.52173403222546</v>
       </c>
       <c r="O11">
-        <v>2.313602549973638</v>
+        <v>3.068491230031555</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.432177311459583</v>
+        <v>0.4676699749320221</v>
       </c>
       <c r="C12">
-        <v>0.2744630674975923</v>
+        <v>0.08103060943670926</v>
       </c>
       <c r="D12">
-        <v>0.3376216666389809</v>
+        <v>0.1166732516331734</v>
       </c>
       <c r="E12">
-        <v>0.5552336291573283</v>
+        <v>0.2069430074005396</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007833261084750397</v>
+        <v>0.002432575708134769</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3832948015092157</v>
+        <v>0.6316965547110343</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.632828516108361</v>
+        <v>0.5151741463830604</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.058421750654837</v>
+        <v>0.3583862130640583</v>
       </c>
       <c r="N12">
-        <v>0.5794139477324229</v>
+        <v>1.517470960900926</v>
       </c>
       <c r="O12">
-        <v>2.348021151045742</v>
+        <v>3.071719332744294</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.424353879497033</v>
+        <v>0.4654400546790782</v>
       </c>
       <c r="C13">
-        <v>0.2729656855240137</v>
+        <v>0.08060772339408118</v>
       </c>
       <c r="D13">
-        <v>0.3357221684072726</v>
+        <v>0.1161617142152238</v>
       </c>
       <c r="E13">
-        <v>0.5520006579710639</v>
+        <v>0.2061632367485871</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007835650352602253</v>
+        <v>0.002432715018143964</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3825547795100306</v>
+        <v>0.6317478570965136</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.623903572609578</v>
+        <v>0.5126336021602356</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.052384079120216</v>
+        <v>0.3568020822039202</v>
       </c>
       <c r="N13">
-        <v>0.5815764080303474</v>
+        <v>1.51838543350328</v>
       </c>
       <c r="O13">
-        <v>2.340566882949787</v>
+        <v>3.071012713308107</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.398861482689</v>
+        <v>0.4581686580444853</v>
       </c>
       <c r="C14">
-        <v>0.2680881025112853</v>
+        <v>0.07922844238972004</v>
       </c>
       <c r="D14">
-        <v>0.3295371864152372</v>
+        <v>0.1144943770542568</v>
       </c>
       <c r="E14">
-        <v>0.5414869854286408</v>
+        <v>0.2036230269318366</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007843457647067633</v>
+        <v>0.002433171474380819</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3801693205283598</v>
+        <v>0.6319236057477013</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.594823868257464</v>
+        <v>0.5043488438241752</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.03272931880776</v>
+        <v>0.3516385393254922</v>
       </c>
       <c r="N14">
-        <v>0.5886678073955949</v>
+        <v>1.521381659459646</v>
       </c>
       <c r="O14">
-        <v>2.316415559584925</v>
+        <v>3.06875167592321</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.383262824718884</v>
+        <v>0.4537153839971495</v>
       </c>
       <c r="C15">
-        <v>0.2651047264050845</v>
+        <v>0.07838347212052099</v>
       </c>
       <c r="D15">
-        <v>0.3257560259847594</v>
+        <v>0.1134737748757715</v>
       </c>
       <c r="E15">
-        <v>0.5350695067536932</v>
+        <v>0.2020692163510418</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007848251764221899</v>
+        <v>0.002433452709275279</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3787293699854928</v>
+        <v>0.6320377417263501</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.5770316044933</v>
+        <v>0.4992745876128311</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.020716894528348</v>
+        <v>0.348477756959177</v>
       </c>
       <c r="N15">
-        <v>0.5930413382278203</v>
+        <v>1.523227637701616</v>
       </c>
       <c r="O15">
-        <v>2.30174261150367</v>
+        <v>3.067400071262739</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.294106473565904</v>
+        <v>0.428205975880843</v>
       </c>
       <c r="C16">
-        <v>0.2480698563796295</v>
+        <v>0.07353945175904641</v>
       </c>
       <c r="D16">
-        <v>0.304194659123084</v>
+        <v>0.1076357037113382</v>
       </c>
       <c r="E16">
-        <v>0.498621075566632</v>
+        <v>0.1931976126442052</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.000787591213647123</v>
+        <v>0.002435089564893894</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3707931205643646</v>
+        <v>0.6327911661974994</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.475358092730943</v>
+        <v>0.4702024460265761</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9522666770577715</v>
+        <v>0.330395758023478</v>
       </c>
       <c r="N16">
-        <v>0.6185521282847581</v>
+        <v>1.533970151002503</v>
       </c>
       <c r="O16">
-        <v>2.219443747483894</v>
+        <v>3.06016546912349</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.239604637658942</v>
+        <v>0.4125664713536992</v>
       </c>
       <c r="C17">
-        <v>0.2376702967206512</v>
+        <v>0.07056617854149749</v>
       </c>
       <c r="D17">
-        <v>0.2910573152545908</v>
+        <v>0.1040636960907335</v>
       </c>
       <c r="E17">
-        <v>0.4765359974711316</v>
+        <v>0.1877841335710499</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007893052680994109</v>
+        <v>0.00243611626926889</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3661958899348008</v>
+        <v>0.6333419849524802</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.413221372341582</v>
+        <v>0.4523736133632212</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.910599023867583</v>
+        <v>0.3193307929564071</v>
       </c>
       <c r="N17">
-        <v>0.6345916788964274</v>
+        <v>1.54070653582712</v>
       </c>
       <c r="O17">
-        <v>2.170486139603241</v>
+        <v>3.056182934568767</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.208321496700563</v>
+        <v>0.4035747291972029</v>
       </c>
       <c r="C18">
-        <v>0.2317057819570039</v>
+        <v>0.06885544004776989</v>
       </c>
       <c r="D18">
-        <v>0.2835319384347486</v>
+        <v>0.102012653235505</v>
       </c>
       <c r="E18">
-        <v>0.4639275702848664</v>
+        <v>0.1846810168153539</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007902976434859095</v>
+        <v>0.002436715107451558</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3636475143505749</v>
+        <v>0.6336913515880696</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.377561571142053</v>
+        <v>0.4421212590054324</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8867436361286423</v>
+        <v>0.3129766958493292</v>
       </c>
       <c r="N18">
-        <v>0.6439564491484546</v>
+        <v>1.544634814350591</v>
       </c>
       <c r="O18">
-        <v>2.142864873551304</v>
+        <v>3.054059650631558</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.197740157126958</v>
+        <v>0.40053092500969</v>
       </c>
       <c r="C19">
-        <v>0.2296890764308444</v>
+        <v>0.06827611258727018</v>
       </c>
       <c r="D19">
-        <v>0.2809890799298529</v>
+        <v>0.1013188037712354</v>
       </c>
       <c r="E19">
-        <v>0.4596741601754246</v>
+        <v>0.183632164088074</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.000790634777427376</v>
+        <v>0.002436919291906695</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3628007764454892</v>
+        <v>0.6338152301268991</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.365500765834156</v>
+        <v>0.4386503975239009</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.878684855112958</v>
+        <v>0.3108270537646902</v>
       </c>
       <c r="N19">
-        <v>0.6471507554860239</v>
+        <v>1.545974079178524</v>
       </c>
       <c r="O19">
-        <v>2.133602911001645</v>
+        <v>3.053369479812091</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.245399605796592</v>
+        <v>0.414230944534097</v>
       </c>
       <c r="C20">
-        <v>0.2387755485368217</v>
+        <v>0.07088274979508924</v>
       </c>
       <c r="D20">
-        <v>0.2924525649556244</v>
+        <v>0.1044435821936816</v>
       </c>
       <c r="E20">
-        <v>0.4788770822538666</v>
+        <v>0.1883593117857743</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007891221357420882</v>
+        <v>0.002436006115709784</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3666752686097468</v>
+        <v>0.6332799801581501</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.419827531386289</v>
+        <v>0.4542712857575282</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9150229688533997</v>
+        <v>0.3205076234836497</v>
       </c>
       <c r="N20">
-        <v>0.6328697439576523</v>
+        <v>1.539983878736734</v>
       </c>
       <c r="O20">
-        <v>2.175641554873522</v>
+        <v>3.056589558555572</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.406345811936973</v>
+        <v>0.4603043053298279</v>
       </c>
       <c r="C21">
-        <v>0.2695198642323788</v>
+        <v>0.07963359587080276</v>
       </c>
       <c r="D21">
-        <v>0.3313523273617562</v>
+        <v>0.1149839706335882</v>
       </c>
       <c r="E21">
-        <v>0.5445703871048124</v>
+        <v>0.204368701498737</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007841161981839925</v>
+        <v>0.002433037060031075</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3808655437366895</v>
+        <v>0.6318706325796555</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.603361091979025</v>
+        <v>0.5067821960002163</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.038496786552237</v>
+        <v>0.3531547724587867</v>
       </c>
       <c r="N21">
-        <v>0.5865786487403355</v>
+        <v>1.520499364474261</v>
       </c>
       <c r="O21">
-        <v>2.323484143884144</v>
+        <v>3.069408847635088</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.51224099788962</v>
+        <v>0.490446072498969</v>
       </c>
       <c r="C22">
-        <v>0.2898003598704122</v>
+        <v>0.0853473886122913</v>
       </c>
       <c r="D22">
-        <v>0.3570973193295401</v>
+        <v>0.1219036189608289</v>
       </c>
       <c r="E22">
-        <v>0.5884912400207938</v>
+        <v>0.2149274123265599</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007808983946156039</v>
+        <v>0.002431170158051181</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3910784232702298</v>
+        <v>0.6312397453789913</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.724181133714495</v>
+        <v>0.5411192230340305</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.120365251921861</v>
+        <v>0.3745826722901882</v>
       </c>
       <c r="N22">
-        <v>0.5576498332290427</v>
+        <v>1.508244055105752</v>
       </c>
       <c r="O22">
-        <v>2.425431384033288</v>
+        <v>3.079279244334856</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.45565141393763</v>
+        <v>0.474356213558849</v>
       </c>
       <c r="C23">
-        <v>0.2789573248226418</v>
+        <v>0.08229832964914863</v>
       </c>
       <c r="D23">
-        <v>0.3433249244411911</v>
+        <v>0.1182076508030576</v>
       </c>
       <c r="E23">
-        <v>0.5649521106716122</v>
+        <v>0.2092832052638443</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007826110695447304</v>
+        <v>0.002432159848695351</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3855373967422082</v>
+        <v>0.6315498913172206</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.659609373022448</v>
+        <v>0.5227913710408814</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.076553921296274</v>
+        <v>0.3631378406799257</v>
       </c>
       <c r="N23">
-        <v>0.5729641222848976</v>
+        <v>1.514741078458634</v>
       </c>
       <c r="O23">
-        <v>2.370506017552657</v>
+        <v>3.073874595219053</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.242779544211544</v>
+        <v>0.4134784373724756</v>
       </c>
       <c r="C24">
-        <v>0.2382758199369874</v>
+        <v>0.07073963217963808</v>
       </c>
       <c r="D24">
-        <v>0.2918216875483495</v>
+        <v>0.1042718277370795</v>
       </c>
       <c r="E24">
-        <v>0.4778184034957818</v>
+        <v>0.188099245188134</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007892049082440828</v>
+        <v>0.002436055889313941</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3664582476695557</v>
+        <v>0.6333079106888064</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.416840691060372</v>
+        <v>0.453413355271266</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9130225941458363</v>
+        <v>0.3199755556764643</v>
       </c>
       <c r="N24">
-        <v>0.6336477849440882</v>
+        <v>1.540310419313808</v>
       </c>
       <c r="O24">
-        <v>2.173309161773659</v>
+        <v>3.056405205759347</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.015578476228598</v>
+        <v>0.3479542059584162</v>
       </c>
       <c r="C25">
-        <v>0.1950282531141028</v>
+        <v>0.05824916721438456</v>
       </c>
       <c r="D25">
-        <v>0.2374240605592632</v>
+        <v>0.08937288747894456</v>
       </c>
       <c r="E25">
-        <v>0.3873662668815498</v>
+        <v>0.1656521703624634</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007965678242623891</v>
+        <v>0.002440576171938072</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3494998287209583</v>
+        <v>0.6364484614780466</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.157938660191633</v>
+        <v>0.3786678008593185</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7407714427732444</v>
+        <v>0.2738067115909004</v>
       </c>
       <c r="N25">
-        <v>0.7043868143415786</v>
+        <v>1.569943280120494</v>
       </c>
       <c r="O25">
-        <v>1.980900156491373</v>
+        <v>3.043959023283094</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_248/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_248/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2998339386254827</v>
+        <v>0.849704975957593</v>
       </c>
       <c r="C2">
-        <v>0.04903159714902472</v>
+        <v>0.1635536010972061</v>
       </c>
       <c r="D2">
-        <v>0.07851510717721055</v>
+        <v>0.1981298373949159</v>
       </c>
       <c r="E2">
-        <v>0.1494589360147245</v>
+        <v>0.3230968192722656</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002444180571458521</v>
+        <v>0.0008022249526825553</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6398288474074398</v>
+        <v>0.3397124689824196</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3237104454460109</v>
+        <v>0.9690392067567473</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2401359665607004</v>
+        <v>0.6165954304453649</v>
       </c>
       <c r="N2">
-        <v>1.593526331344803</v>
+        <v>0.7606150682576001</v>
       </c>
       <c r="O2">
-        <v>3.040280488031499</v>
+        <v>1.854080250580097</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2673024519064882</v>
+        <v>0.7378737649149798</v>
       </c>
       <c r="C3">
-        <v>0.04277111620473306</v>
+        <v>0.1423736341773036</v>
       </c>
       <c r="D3">
-        <v>0.07122575567662182</v>
+        <v>0.1718653883685448</v>
       </c>
       <c r="E3">
-        <v>0.1386873054833515</v>
+        <v>0.2806772953935237</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002446796989621838</v>
+        <v>0.0008062153523282767</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6427850256888981</v>
+        <v>0.3345747496180849</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2865146929551656</v>
+        <v>0.8417303214965557</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2175135535620853</v>
+        <v>0.5336858215812583</v>
       </c>
       <c r="N3">
-        <v>1.610609169924331</v>
+        <v>0.8011253923604169</v>
       </c>
       <c r="O3">
-        <v>3.041201842892008</v>
+        <v>1.776216808907094</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2473687087033341</v>
+        <v>0.6694066850147919</v>
       </c>
       <c r="C4">
-        <v>0.03892031210686753</v>
+        <v>0.1294197116721563</v>
       </c>
       <c r="D4">
-        <v>0.06678392970682978</v>
+        <v>0.1558865658245452</v>
       </c>
       <c r="E4">
-        <v>0.1321716490359108</v>
+        <v>0.2550969181863607</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002448489620338353</v>
+        <v>0.0008087455510030917</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6449280029245053</v>
+        <v>0.332100271371413</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2637016229586777</v>
+        <v>0.7638018272033946</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2037189408445528</v>
+        <v>0.4832705924340672</v>
       </c>
       <c r="N4">
-        <v>1.62164069040888</v>
+        <v>0.8271292746138901</v>
       </c>
       <c r="O4">
-        <v>3.043449654035072</v>
+        <v>1.732036881212139</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2392561369210284</v>
+        <v>0.6415434483133708</v>
       </c>
       <c r="C5">
-        <v>0.03734937123758186</v>
+        <v>0.1241504131767215</v>
       </c>
       <c r="D5">
-        <v>0.06498237364364456</v>
+        <v>0.1494077084383605</v>
       </c>
       <c r="E5">
-        <v>0.1295409430060062</v>
+        <v>0.2447766456490541</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002449201106830088</v>
+        <v>0.0008097971607410326</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6458837030429692</v>
+        <v>0.3312548889349536</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2544117938443691</v>
+        <v>0.7320906964773286</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1981214969055216</v>
+        <v>0.4628328020068793</v>
       </c>
       <c r="N5">
-        <v>1.62627250032974</v>
+        <v>0.8380024149979608</v>
       </c>
       <c r="O5">
-        <v>3.04478846843719</v>
+        <v>1.714895712101793</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2379097005405413</v>
+        <v>0.636918713586681</v>
       </c>
       <c r="C6">
-        <v>0.03708841502886173</v>
+        <v>0.1232759355947337</v>
       </c>
       <c r="D6">
-        <v>0.06468374171632263</v>
+        <v>0.1483337437766892</v>
       </c>
       <c r="E6">
-        <v>0.1291055885368166</v>
+        <v>0.2430688820811611</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002449320562701333</v>
+        <v>0.0008099730311964545</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6460473734912284</v>
+        <v>0.331124130979525</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.252869638044416</v>
+        <v>0.7268274077712249</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1971934912876989</v>
+        <v>0.4594451018926335</v>
       </c>
       <c r="N6">
-        <v>1.627049843807617</v>
+        <v>0.8398243595207511</v>
       </c>
       <c r="O6">
-        <v>3.04503630972269</v>
+        <v>1.712100118196844</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2472592563779585</v>
+        <v>0.6690307746555675</v>
       </c>
       <c r="C7">
-        <v>0.03889913274134926</v>
+        <v>0.1293486135862167</v>
       </c>
       <c r="D7">
-        <v>0.06675959876621107</v>
+        <v>0.1557990632853148</v>
       </c>
       <c r="E7">
-        <v>0.1321360715831901</v>
+        <v>0.2549573312674056</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002448499127623364</v>
+        <v>0.0008087596496930056</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6449405581534506</v>
+        <v>0.3320882206250886</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2635763095840815</v>
+        <v>0.7633739952127598</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2036433547937833</v>
+        <v>0.4829945502078417</v>
       </c>
       <c r="N7">
-        <v>1.621702604522136</v>
+        <v>0.8272748047870948</v>
       </c>
       <c r="O7">
-        <v>3.043465998022413</v>
+        <v>1.731802281178346</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2886088305506576</v>
+        <v>0.8110970248636136</v>
       </c>
       <c r="C8">
-        <v>0.04687441016001515</v>
+        <v>0.156238235430763</v>
       </c>
       <c r="D8">
-        <v>0.07599471281724846</v>
+        <v>0.1890404308777107</v>
       </c>
       <c r="E8">
-        <v>0.1457243741718628</v>
+        <v>0.3083658444074473</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002445064873695708</v>
+        <v>0.0008035844676570007</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6407800710096154</v>
+        <v>0.3377948619717763</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3108802894811333</v>
+        <v>0.9250840837607086</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2323158550491371</v>
+        <v>0.5878957280420707</v>
       </c>
       <c r="N8">
-        <v>1.599303843773807</v>
+        <v>0.7743435404708681</v>
       </c>
       <c r="O8">
-        <v>3.040248945088337</v>
+        <v>1.82644893129401</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.370006985792287</v>
+        <v>1.091849857061675</v>
       </c>
       <c r="C9">
-        <v>0.06245975833662953</v>
+        <v>0.2095278763667494</v>
       </c>
       <c r="D9">
-        <v>0.09437405003346555</v>
+        <v>0.2556151023774191</v>
       </c>
       <c r="E9">
-        <v>0.1731607473884154</v>
+        <v>0.4174284239518684</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.00243901080189496</v>
+        <v>0.0007940522869987987</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6352245235481035</v>
+        <v>0.3547665910399402</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4038340221846681</v>
+        <v>1.244829758023627</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2893078667147293</v>
+        <v>0.7983249446706253</v>
       </c>
       <c r="N9">
-        <v>1.559687262972691</v>
+        <v>0.6798892158564271</v>
       </c>
       <c r="O9">
-        <v>3.047298375917478</v>
+        <v>2.043240902966261</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4299910426904603</v>
+        <v>1.300334727903731</v>
       </c>
       <c r="C10">
-        <v>0.07387864246659603</v>
+        <v>0.2492589431708581</v>
       </c>
       <c r="D10">
-        <v>0.1080437660276772</v>
+        <v>0.3056980588944356</v>
       </c>
       <c r="E10">
-        <v>0.1938167660784202</v>
+        <v>0.5011543953345168</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002434973534653343</v>
+        <v>0.0007873964953220165</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6327327257882018</v>
+        <v>0.3713309615436771</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4722371454320182</v>
+        <v>1.482459638600488</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3316597282936513</v>
+        <v>0.9570368562046099</v>
       </c>
       <c r="N10">
-        <v>1.533208760437635</v>
+        <v>0.6167410509427889</v>
       </c>
       <c r="O10">
-        <v>3.060642588897963</v>
+        <v>2.225104780969161</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4573170159726203</v>
+        <v>1.395877594975133</v>
       </c>
       <c r="C11">
-        <v>0.0790668653651494</v>
+        <v>0.2675173389526151</v>
       </c>
       <c r="D11">
-        <v>0.1142991657434607</v>
+        <v>0.3288136830757935</v>
       </c>
       <c r="E11">
-        <v>0.2033257639171993</v>
+        <v>0.5402584494941038</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002433225157634708</v>
+        <v>0.0007844373718380315</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.631945047430122</v>
+        <v>0.3798927078334344</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.503378466914711</v>
+        <v>1.591420278119784</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3510339802253313</v>
+        <v>1.030430610486896</v>
       </c>
       <c r="N11">
-        <v>1.52173403222546</v>
+        <v>0.5895023982651182</v>
       </c>
       <c r="O11">
-        <v>3.068491230031555</v>
+        <v>2.313602549973666</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4676699749320221</v>
+        <v>1.432177311459668</v>
       </c>
       <c r="C12">
-        <v>0.08103060943670926</v>
+        <v>0.2744630674977486</v>
       </c>
       <c r="D12">
-        <v>0.1166732516331734</v>
+        <v>0.3376216666392793</v>
       </c>
       <c r="E12">
-        <v>0.2069430074005396</v>
+        <v>0.5552336291573283</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002432575708134769</v>
+        <v>0.0007833261084454479</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6316965547110343</v>
+        <v>0.3832948015092086</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5151741463830604</v>
+        <v>1.632828516108333</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3583862130640583</v>
+        <v>1.05842175065483</v>
       </c>
       <c r="N12">
-        <v>1.517470960900926</v>
+        <v>0.5794139477324762</v>
       </c>
       <c r="O12">
-        <v>3.071719332744294</v>
+        <v>2.348021151045771</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4654400546790782</v>
+        <v>1.424353879496721</v>
       </c>
       <c r="C13">
-        <v>0.08060772339408118</v>
+        <v>0.2729656855239995</v>
       </c>
       <c r="D13">
-        <v>0.1161617142152238</v>
+        <v>0.3357221684071732</v>
       </c>
       <c r="E13">
-        <v>0.2061632367485871</v>
+        <v>0.5520006579710852</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002432715018143964</v>
+        <v>0.0007835650352595752</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6317478570965136</v>
+        <v>0.3825547795100093</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5126336021602356</v>
+        <v>1.623903572609635</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3568020822039202</v>
+        <v>1.052384079120223</v>
       </c>
       <c r="N13">
-        <v>1.51838543350328</v>
+        <v>0.5815764080303438</v>
       </c>
       <c r="O13">
-        <v>3.071012713308107</v>
+        <v>2.340566882949787</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4581686580444853</v>
+        <v>1.398861482689114</v>
       </c>
       <c r="C14">
-        <v>0.07922844238972004</v>
+        <v>0.2680881025112569</v>
       </c>
       <c r="D14">
-        <v>0.1144943770542568</v>
+        <v>0.3295371864151093</v>
       </c>
       <c r="E14">
-        <v>0.2036230269318366</v>
+        <v>0.5414869854286408</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002433171474380819</v>
+        <v>0.0007843457647057698</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6319236057477013</v>
+        <v>0.3801693205283598</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5043488438241752</v>
+        <v>1.594823868257492</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3516385393254922</v>
+        <v>1.032729318807753</v>
       </c>
       <c r="N14">
-        <v>1.521381659459646</v>
+        <v>0.5886678073955949</v>
       </c>
       <c r="O14">
-        <v>3.06875167592321</v>
+        <v>2.316415559584954</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4537153839971495</v>
+        <v>1.383262824718713</v>
       </c>
       <c r="C15">
-        <v>0.07838347212052099</v>
+        <v>0.2651047264047151</v>
       </c>
       <c r="D15">
-        <v>0.1134737748757715</v>
+        <v>0.3257560259848873</v>
       </c>
       <c r="E15">
-        <v>0.2020692163510418</v>
+        <v>0.5350695067537075</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002433452709275279</v>
+        <v>0.0007848251763921379</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6320377417263501</v>
+        <v>0.3787293699854999</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4992745876128311</v>
+        <v>1.577031604493271</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.348477756959177</v>
+        <v>1.020716894528348</v>
       </c>
       <c r="N15">
-        <v>1.523227637701616</v>
+        <v>0.5930413382278203</v>
       </c>
       <c r="O15">
-        <v>3.067400071262739</v>
+        <v>2.301742611503698</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.428205975880843</v>
+        <v>1.294106473566046</v>
       </c>
       <c r="C16">
-        <v>0.07353945175904641</v>
+        <v>0.2480698563796295</v>
       </c>
       <c r="D16">
-        <v>0.1076357037113382</v>
+        <v>0.3041946591229703</v>
       </c>
       <c r="E16">
-        <v>0.1931976126442052</v>
+        <v>0.4986210755666178</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002435089564893894</v>
+        <v>0.0007875912136466852</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6327911661974994</v>
+        <v>0.3707931205643504</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4702024460265761</v>
+        <v>1.475358092730943</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.330395758023478</v>
+        <v>0.9522666770577501</v>
       </c>
       <c r="N16">
-        <v>1.533970151002503</v>
+        <v>0.6185521282848399</v>
       </c>
       <c r="O16">
-        <v>3.06016546912349</v>
+        <v>2.21944374748395</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4125664713536992</v>
+        <v>1.239604637658829</v>
       </c>
       <c r="C17">
-        <v>0.07056617854149749</v>
+        <v>0.2376702967205517</v>
       </c>
       <c r="D17">
-        <v>0.1040636960907335</v>
+        <v>0.2910573152545481</v>
       </c>
       <c r="E17">
-        <v>0.1877841335710499</v>
+        <v>0.4765359974711885</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.00243611626926889</v>
+        <v>0.0007893052680986892</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6333419849524802</v>
+        <v>0.3661958899347937</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4523736133632212</v>
+        <v>1.413221372341667</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3193307929564071</v>
+        <v>0.9105990238676256</v>
       </c>
       <c r="N17">
-        <v>1.54070653582712</v>
+        <v>0.634591678896399</v>
       </c>
       <c r="O17">
-        <v>3.056182934568767</v>
+        <v>2.170486139603213</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4035747291972029</v>
+        <v>1.208321496700762</v>
       </c>
       <c r="C18">
-        <v>0.06885544004776989</v>
+        <v>0.231705781957416</v>
       </c>
       <c r="D18">
-        <v>0.102012653235505</v>
+        <v>0.2835319384346917</v>
       </c>
       <c r="E18">
-        <v>0.1846810168153539</v>
+        <v>0.4639275702848877</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002436715107451558</v>
+        <v>0.0007902976434843333</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6336913515880696</v>
+        <v>0.3636475143505535</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4421212590054324</v>
+        <v>1.377561571142053</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3129766958493292</v>
+        <v>0.8867436361286423</v>
       </c>
       <c r="N18">
-        <v>1.544634814350591</v>
+        <v>0.6439564491484333</v>
       </c>
       <c r="O18">
-        <v>3.054059650631558</v>
+        <v>2.14286487355136</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.40053092500969</v>
+        <v>1.197740157126901</v>
       </c>
       <c r="C19">
-        <v>0.06827611258727018</v>
+        <v>0.2296890764308444</v>
       </c>
       <c r="D19">
-        <v>0.1013188037712354</v>
+        <v>0.2809890799297818</v>
       </c>
       <c r="E19">
-        <v>0.183632164088074</v>
+        <v>0.4596741601754104</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002436919291906695</v>
+        <v>0.0007906347774264831</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6338152301268991</v>
+        <v>0.3628007764454964</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4386503975239009</v>
+        <v>1.365500765834128</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3108270537646902</v>
+        <v>0.8786848551129438</v>
       </c>
       <c r="N19">
-        <v>1.545974079178524</v>
+        <v>0.6471507554860239</v>
       </c>
       <c r="O19">
-        <v>3.053369479812091</v>
+        <v>2.133602911001645</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.414230944534097</v>
+        <v>1.245399605796507</v>
       </c>
       <c r="C20">
-        <v>0.07088274979508924</v>
+        <v>0.2387755485371628</v>
       </c>
       <c r="D20">
-        <v>0.1044435821936816</v>
+        <v>0.2924525649556813</v>
       </c>
       <c r="E20">
-        <v>0.1883593117857743</v>
+        <v>0.4788770822538524</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002436006115709784</v>
+        <v>0.0007891221358270891</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6332799801581501</v>
+        <v>0.3666752686097325</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4542712857575282</v>
+        <v>1.419827531386318</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3205076234836497</v>
+        <v>0.9150229688533926</v>
       </c>
       <c r="N20">
-        <v>1.539983878736734</v>
+        <v>0.632869743957631</v>
       </c>
       <c r="O20">
-        <v>3.056589558555572</v>
+        <v>2.17564155487355</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4603043053298279</v>
+        <v>1.40634581193703</v>
       </c>
       <c r="C21">
-        <v>0.07963359587080276</v>
+        <v>0.2695198642324357</v>
       </c>
       <c r="D21">
-        <v>0.1149839706335882</v>
+        <v>0.3313523273618557</v>
       </c>
       <c r="E21">
-        <v>0.204368701498737</v>
+        <v>0.5445703871048053</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002433037060031075</v>
+        <v>0.0007841161981530026</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6318706325796555</v>
+        <v>0.3808655437366752</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5067821960002163</v>
+        <v>1.603361091978996</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3531547724587867</v>
+        <v>1.038496786552237</v>
       </c>
       <c r="N21">
-        <v>1.520499364474261</v>
+        <v>0.5865786487403213</v>
       </c>
       <c r="O21">
-        <v>3.069408847635088</v>
+        <v>2.323484143884201</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.490446072498969</v>
+        <v>1.51224099788962</v>
       </c>
       <c r="C22">
-        <v>0.0853473886122913</v>
+        <v>0.2898003598703838</v>
       </c>
       <c r="D22">
-        <v>0.1219036189608289</v>
+        <v>0.3570973193294691</v>
       </c>
       <c r="E22">
-        <v>0.2149274123265599</v>
+        <v>0.5884912400207867</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002431170158051181</v>
+        <v>0.0007808983946148512</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6312397453789913</v>
+        <v>0.391078423270244</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5411192230340305</v>
+        <v>1.724181133714609</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3745826722901882</v>
+        <v>1.120365251921854</v>
       </c>
       <c r="N22">
-        <v>1.508244055105752</v>
+        <v>0.5576498332291138</v>
       </c>
       <c r="O22">
-        <v>3.079279244334856</v>
+        <v>2.425431384033345</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.474356213558849</v>
+        <v>1.455651413937687</v>
       </c>
       <c r="C23">
-        <v>0.08229832964914863</v>
+        <v>0.2789573248224855</v>
       </c>
       <c r="D23">
-        <v>0.1182076508030576</v>
+        <v>0.3433249244411485</v>
       </c>
       <c r="E23">
-        <v>0.2092832052638443</v>
+        <v>0.5649521106716691</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002432159848695351</v>
+        <v>0.0007826110695149638</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6315498913172206</v>
+        <v>0.385537396742194</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5227913710408814</v>
+        <v>1.65960937302242</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3631378406799257</v>
+        <v>1.076553921296259</v>
       </c>
       <c r="N23">
-        <v>1.514741078458634</v>
+        <v>0.5729641222848514</v>
       </c>
       <c r="O23">
-        <v>3.073874595219053</v>
+        <v>2.370506017552657</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4134784373724756</v>
+        <v>1.242779544211572</v>
       </c>
       <c r="C24">
-        <v>0.07073963217963808</v>
+        <v>0.2382758199370016</v>
       </c>
       <c r="D24">
-        <v>0.1042718277370795</v>
+        <v>0.2918216875484632</v>
       </c>
       <c r="E24">
-        <v>0.188099245188134</v>
+        <v>0.4778184034957889</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002436055889313941</v>
+        <v>0.0007892049082433017</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6333079106888064</v>
+        <v>0.3664582476695628</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.453413355271266</v>
+        <v>1.416840691060457</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3199755556764643</v>
+        <v>0.9130225941458505</v>
       </c>
       <c r="N24">
-        <v>1.540310419313808</v>
+        <v>0.6336477849440776</v>
       </c>
       <c r="O24">
-        <v>3.056405205759347</v>
+        <v>2.173309161773716</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3479542059584162</v>
+        <v>1.015578476228796</v>
       </c>
       <c r="C25">
-        <v>0.05824916721438456</v>
+        <v>0.195028253113847</v>
       </c>
       <c r="D25">
-        <v>0.08937288747894456</v>
+        <v>0.2374240605590501</v>
       </c>
       <c r="E25">
-        <v>0.1656521703624634</v>
+        <v>0.3873662668815712</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002440576171938072</v>
+        <v>0.0007965678242623942</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6364484614780466</v>
+        <v>0.3494998287209512</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3786678008593185</v>
+        <v>1.157938660191604</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2738067115909004</v>
+        <v>0.7407714427732373</v>
       </c>
       <c r="N25">
-        <v>1.569943280120494</v>
+        <v>0.7043868143415146</v>
       </c>
       <c r="O25">
-        <v>3.043959023283094</v>
+        <v>1.980900156491288</v>
       </c>
     </row>
   </sheetData>
